--- a/preprocessing/missing_data_matrix_subset.xlsx
+++ b/preprocessing/missing_data_matrix_subset.xlsx
@@ -1496,7 +1496,7 @@
         <v>44</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
